--- a/2020/Requisition/08.01.2020 Requisition of Mughdo Corporation.xlsx
+++ b/2020/Requisition/08.01.2020 Requisition of Mughdo Corporation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Requisition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70B3003-B15B-415E-BB9C-54E8EB293464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8209499A-4427-4F58-B7C1-1A0B8C6E17F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="390" windowWidth="12045" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
@@ -1072,10 +1072,10 @@
   <dimension ref="A1:BV107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3703,11 +3703,11 @@
         <v>1072.675</v>
       </c>
       <c r="C90" s="8">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D90" s="10">
         <f t="shared" si="2"/>
-        <v>79377.95</v>
+        <v>75087.25</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>92</v>
@@ -3884,11 +3884,11 @@
       <c r="B95" s="44"/>
       <c r="C95" s="16">
         <f>SUBTOTAL(9,C7:C94)</f>
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D95" s="17">
         <f>SUBTOTAL(9,D7:D94)</f>
-        <v>385608.31000000006</v>
+        <v>381317.61</v>
       </c>
       <c r="E95" s="31"/>
       <c r="F95" s="33"/>
